--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2509.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2509.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.655088707174666</v>
+        <v>1.614100575447083</v>
       </c>
       <c r="B1">
-        <v>4.028009044487027</v>
+        <v>2.748774290084839</v>
       </c>
       <c r="C1">
-        <v>3.591337411760934</v>
+        <v>3.178627967834473</v>
       </c>
       <c r="D1">
-        <v>2.377964752198785</v>
+        <v>3.556381464004517</v>
       </c>
       <c r="E1">
-        <v>2.732448138922568</v>
+        <v>1.619780302047729</v>
       </c>
     </row>
   </sheetData>
